--- a/Hrois+Hovas+单证/01_项目需求/所有需求/调度单已上线的SAP接口文档/调度单进度.xlsx
+++ b/Hrois+Hovas+单证/01_项目需求/所有需求/调度单已上线的SAP接口文档/调度单进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F40DC9-19B6-674E-953C-9B575CBD0637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81298DC-E34F-9C42-8F8F-E89F1864F782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>销售组织</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -611,6 +611,10 @@
   </si>
   <si>
     <t>订单处于不同节点，要同时更改线下订舱/报关/出运信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样机订单改标准订单无法修改原因：系统是在订单确认的时候生成了整条订单的节点信息，也就是订单的流程图上的节点信息，如果订单确认后修改订单类型，可能会导致订单的流程节点不一致导致订单流程出错，从而引发订单无法结束的问题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2092,7 +2096,9 @@
       <c r="G23" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
         <v>104</v>
